--- a/target/test-classes/testdata/testData.xlsx
+++ b/target/test-classes/testdata/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12075" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11430" windowHeight="2565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>laptop</t>
+  </si>
+  <si>
+    <t>12@</t>
   </si>
 </sst>
 </file>
@@ -383,12 +386,17 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
